--- a/CDMO_Automation/00_Annual_Update/Updated_reserve_var_sheets/Reserve_Level_Plotting_Variables_JOB_2020.xlsx
+++ b/CDMO_Automation/00_Annual_Update/Updated_reserve_var_sheets/Reserve_Level_Plotting_Variables_JOB_2020.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
   <si>
     <t>Flags</t>
   </si>
@@ -376,6 +376,30 @@
   </si>
   <si>
     <t xml:space="preserve">2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Res_Bounding_Box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK_Bounding_Box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Station_Map_Label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK_WQ_Map_Label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK_MET_Map_Label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK_NUT_Map_Label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
   </si>
   <si>
     <t xml:space="preserve">Options</t>
@@ -1439,102 +1463,103 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>-66.266400000000004</v>
+        <v>-66.2708</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>-66.266400000000004</v>
+        <v>-66.2675</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>17.971399999999999</v>
+        <v>17.9047</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>17.971399999999999</v>
+        <v>17.9082</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>-66.188299999999998</v>
+        <v>-66.1958</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>-66.188299999999998</v>
+        <v>-66.1991</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>17.909800000000001</v>
+        <v>17.9722</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>17.909800000000001</v>
+        <v>17.9688</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1"/>
+      <c r="B6"/>
       <c r="C6" s="1" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1561,98 +1586,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1700,402 +1725,402 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E2"/>
       <c r="F2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E3"/>
       <c r="F3" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C5" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D5" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C6" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" t="s">
         <v>148</v>
       </c>
-      <c r="C8" t="s">
-        <v>140</v>
-      </c>
       <c r="D8" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" t="s">
         <v>149</v>
-      </c>
-      <c r="B9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" t="s">
-        <v>140</v>
-      </c>
-      <c r="D9" t="s">
-        <v>141</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" t="s">
         <v>148</v>
       </c>
-      <c r="C10" t="s">
-        <v>140</v>
-      </c>
       <c r="D10" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" t="s">
         <v>148</v>
       </c>
-      <c r="C11" t="s">
-        <v>140</v>
-      </c>
       <c r="D11" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" t="s">
         <v>148</v>
       </c>
-      <c r="C12" t="s">
-        <v>140</v>
-      </c>
       <c r="D12" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C13" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="D13" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E13"/>
       <c r="F13" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C14" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="D14" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B15" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C15" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D15" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E15"/>
       <c r="F15" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B16" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C16" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D16" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E16"/>
       <c r="F16" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B17" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D17" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E17"/>
       <c r="F17" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B18" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C18" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D18" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E18"/>
       <c r="F18" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B19" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C19" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D19" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E19"/>
       <c r="F19" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B20" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C20" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D20" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B21" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C21" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D21" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B22" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C22" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D22" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E22"/>
       <c r="F22" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/CDMO_Automation/00_Annual_Update/Updated_reserve_var_sheets/Reserve_Level_Plotting_Variables_JOB_2020.xlsx
+++ b/CDMO_Automation/00_Annual_Update/Updated_reserve_var_sheets/Reserve_Level_Plotting_Variables_JOB_2020.xlsx
@@ -549,7 +549,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="1" sqref="B:B C23"/>
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.31640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -572,7 +572,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="B:B A7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.31640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -824,7 +824,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="B:B A5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.31640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -878,7 +878,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G34" activeCellId="1" sqref="B:B G34"/>
+      <selection pane="topLeft" activeCell="G34" activeCellId="0" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.31640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -926,7 +926,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="1" sqref="B:B G15"/>
+      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.31640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1162,7 +1162,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B:B"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.31640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1295,15 +1295,15 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B:B"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.31640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.31640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.15"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>42</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>44</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>46</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>47</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>48</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>50</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>51</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>52</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>53</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>54</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>55</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>56</v>
       </c>
@@ -1419,7 +1419,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G33" activeCellId="1" sqref="B:B G33"/>
+      <selection pane="topLeft" activeCell="G33" activeCellId="0" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.31640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1442,7 +1442,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="B:B A7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.31640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1853,7 +1853,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="B:B A7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.31640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
